--- a/biology/Zoologie/Chrysochraon/Chrysochraon.xlsx
+++ b/biology/Zoologie/Chrysochraon/Chrysochraon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysochraon est un genre de criquets de la sous-famille des Gomphocerinae comprenant trois espèces réparties sur une grande partie de l'Eurasie.
 </t>
@@ -511,7 +523,9 @@
           <t>Réparatition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est présent dans presque toute l'Eurasie sur une bande s’étendant entre les latitudes de la Scandinavie au Nord et de la Grèce au Sud non comprises. Il est absent des îles comme les îles méditerranéennes, du Royaume-Uni ou du Japon par exemple.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysochraon amurensis Mishchenko, 1986
 Chrysochraon beybienkoi Galvagni, 1968
